--- a/Database/Kato/USA.xlsx
+++ b/Database/Kato/USA.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185234E1-9B0D-4271-B8C4-FB205B700BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="516" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="510" windowWidth="11460" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -59,11 +40,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +54,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -106,20 +94,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -166,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -218,7 +199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -412,33 +393,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="G262" sqref="G262"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,14 +442,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43876</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
       <c r="D2" s="2">
@@ -484,14 +465,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>43877</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
       <c r="D3" s="2">
@@ -507,14 +488,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>43878</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>15</v>
       </c>
       <c r="D4" s="2">
@@ -530,14 +511,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>43879</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>15</v>
       </c>
       <c r="D5" s="2">
@@ -553,14 +534,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>43880</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>15</v>
       </c>
       <c r="D6" s="2">
@@ -576,14 +557,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>43881</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>15</v>
       </c>
       <c r="D7" s="2">
@@ -599,14 +580,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>43882</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>35</v>
       </c>
       <c r="D8" s="2">
@@ -622,14 +603,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>43883</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>35</v>
       </c>
       <c r="D9" s="2">
@@ -645,14 +626,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>43884</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>35</v>
       </c>
       <c r="D10" s="2">
@@ -668,14 +649,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>43885</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>53</v>
       </c>
       <c r="D11" s="2">
@@ -691,14 +672,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>43886</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>57</v>
       </c>
       <c r="D12" s="2">
@@ -714,14 +695,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>43887</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>60</v>
       </c>
       <c r="D13" s="2">
@@ -737,14 +718,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>43888</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>60</v>
       </c>
       <c r="D14" s="2">
@@ -760,14 +741,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>43889</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>63</v>
       </c>
       <c r="D15" s="2">
@@ -783,14 +764,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>43890</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>68</v>
       </c>
       <c r="D16" s="2">
@@ -806,14 +787,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>43891</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>75</v>
       </c>
       <c r="D17" s="2">
@@ -829,14 +810,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>43892</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>100</v>
       </c>
       <c r="D18" s="2">
@@ -852,14 +833,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>43893</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>124</v>
       </c>
       <c r="D19" s="2">
@@ -875,14 +856,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>43894</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>158</v>
       </c>
       <c r="D20" s="2">
@@ -898,14 +879,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>43895</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>221</v>
       </c>
       <c r="D21" s="2">
@@ -921,14 +902,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>43896</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>319</v>
       </c>
       <c r="D22" s="2">
@@ -944,14 +925,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>43897</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>435</v>
       </c>
       <c r="D23" s="2">
@@ -967,14 +948,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>541</v>
       </c>
       <c r="D24" s="2">
@@ -990,14 +971,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>43899</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>704</v>
       </c>
       <c r="D25" s="2">
@@ -1013,14 +994,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>43900</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>994</v>
       </c>
       <c r="D26" s="2">
@@ -1036,14 +1017,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>43901</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>1301</v>
       </c>
       <c r="D27" s="2">
@@ -1059,15 +1040,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>43902</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
-        <v>1631</v>
+      <c r="C28" s="3">
+        <v>1691</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -1082,15 +1063,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>43903</v>
       </c>
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="2">
-        <v>2185</v>
+      <c r="C29" s="3">
+        <v>2290</v>
       </c>
       <c r="D29" s="2">
         <v>554</v>
@@ -1105,15 +1086,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>43904</v>
       </c>
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
-        <v>2774</v>
+      <c r="C30" s="3">
+        <v>2943</v>
       </c>
       <c r="D30" s="2">
         <v>589</v>
@@ -1128,15 +1109,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>43905</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="2">
-        <v>3622</v>
+      <c r="C31" s="3">
+        <v>3830</v>
       </c>
       <c r="D31" s="2">
         <v>848</v>
@@ -1151,15 +1132,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>43906</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
-        <v>4611</v>
+      <c r="C32" s="3">
+        <v>4945</v>
       </c>
       <c r="D32" s="2">
         <v>989</v>
@@ -1174,15 +1155,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>43907</v>
       </c>
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="2">
-        <v>6366</v>
+      <c r="C33" s="3">
+        <v>6931</v>
       </c>
       <c r="D33" s="2">
         <v>1755</v>
@@ -1197,15 +1178,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>43908</v>
       </c>
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="2">
-        <v>9333</v>
+      <c r="C34" s="3">
+        <v>10123</v>
       </c>
       <c r="D34" s="2">
         <v>2967</v>
@@ -1220,15 +1201,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>43909</v>
       </c>
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="2">
-        <v>13935</v>
+      <c r="C35" s="3">
+        <v>14971</v>
       </c>
       <c r="D35" s="2">
         <v>4602</v>
@@ -1243,15 +1224,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>43910</v>
       </c>
       <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
-        <v>19608</v>
+      <c r="C36" s="3">
+        <v>20998</v>
       </c>
       <c r="D36" s="2">
         <v>5673</v>
@@ -1266,15 +1247,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>43911</v>
       </c>
       <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
-        <v>24498</v>
+      <c r="C37" s="3">
+        <v>26129</v>
       </c>
       <c r="D37" s="2">
         <v>4890</v>
@@ -1289,15 +1270,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>43912</v>
       </c>
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
-        <v>33946</v>
+      <c r="C38" s="3">
+        <v>35778</v>
       </c>
       <c r="D38" s="2">
         <v>9448</v>
@@ -1312,15 +1293,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>43913</v>
       </c>
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="2">
-        <v>44325</v>
+      <c r="C39" s="3">
+        <v>46749</v>
       </c>
       <c r="D39" s="2">
         <v>10379</v>
@@ -1335,15 +1316,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>43914</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="2">
-        <v>55579</v>
+      <c r="C40" s="3">
+        <v>58442</v>
       </c>
       <c r="D40" s="2">
         <v>11254</v>
@@ -1358,15 +1339,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>43915</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
-        <v>69136</v>
+      <c r="C41" s="3">
+        <v>72149</v>
       </c>
       <c r="D41" s="2">
         <v>13557</v>
@@ -1381,15 +1362,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>43916</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
-        <v>86668</v>
+      <c r="C42" s="3">
+        <v>90270</v>
       </c>
       <c r="D42" s="2">
         <v>17532</v>
@@ -1404,15 +1385,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>43917</v>
       </c>
       <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="2">
-        <v>105584</v>
+      <c r="C43" s="3">
+        <v>109511</v>
       </c>
       <c r="D43" s="2">
         <v>18916</v>
@@ -1427,15 +1408,15 @@
         <v>502</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43918</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="2">
-        <v>125250</v>
+      <c r="C44" s="3">
+        <v>129019</v>
       </c>
       <c r="D44" s="2">
         <v>19666</v>
@@ -1450,15 +1431,15 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43919</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="2">
-        <v>145526</v>
+      <c r="C45" s="3">
+        <v>149379</v>
       </c>
       <c r="D45" s="2">
         <v>20279</v>
@@ -1473,15 +1454,15 @@
         <v>502</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>43920</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="C46" s="2">
-        <v>168822</v>
+      <c r="C46" s="3">
+        <v>173343</v>
       </c>
       <c r="D46" s="2">
         <v>23296</v>
@@ -1496,15 +1477,15 @@
         <v>822</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>43921</v>
       </c>
       <c r="B47" s="2">
         <v>46</v>
       </c>
-      <c r="C47" s="2">
-        <v>194114</v>
+      <c r="C47" s="3">
+        <v>199353</v>
       </c>
       <c r="D47" s="2">
         <v>25292</v>
@@ -1519,15 +1500,15 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>43922</v>
       </c>
       <c r="B48" s="2">
         <v>47</v>
       </c>
-      <c r="C48" s="2">
-        <v>221229</v>
+      <c r="C48" s="3">
+        <v>227055</v>
       </c>
       <c r="D48" s="2">
         <v>27115</v>
@@ -1542,15 +1523,15 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>43923</v>
       </c>
       <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="C49" s="2">
-        <v>251802</v>
+      <c r="C49" s="3">
+        <v>258053</v>
       </c>
       <c r="D49" s="2">
         <v>30573</v>
@@ -1565,15 +1546,15 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>43924</v>
       </c>
       <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="C50" s="2">
-        <v>284775</v>
+      <c r="C50" s="3">
+        <v>291504</v>
       </c>
       <c r="D50" s="2">
         <v>32973</v>
@@ -1588,15 +1569,15 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>43925</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="C51" s="2">
-        <v>319463</v>
+      <c r="C51" s="3">
+        <v>326442</v>
       </c>
       <c r="D51" s="2">
         <v>34688</v>
@@ -1611,15 +1592,15 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>43926</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" s="2">
-        <v>345368</v>
+      <c r="C52" s="3">
+        <v>352932</v>
       </c>
       <c r="D52" s="2">
         <v>25905</v>
@@ -1634,15 +1615,15 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>43927</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
       </c>
-      <c r="C53" s="2">
-        <v>377129</v>
+      <c r="C53" s="3">
+        <v>385722</v>
       </c>
       <c r="D53" s="2">
         <v>31761</v>
@@ -1657,15 +1638,15 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>43928</v>
       </c>
       <c r="B54" s="2">
         <v>53</v>
       </c>
-      <c r="C54" s="2">
-        <v>411208</v>
+      <c r="C54" s="3">
+        <v>420965</v>
       </c>
       <c r="D54" s="2">
         <v>34079</v>
@@ -1680,15 +1661,15 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>43929</v>
       </c>
       <c r="B55" s="2">
         <v>54</v>
       </c>
-      <c r="C55" s="2">
-        <v>443731</v>
+      <c r="C55" s="3">
+        <v>454232</v>
       </c>
       <c r="D55" s="2">
         <v>32523</v>
@@ -1703,15 +1684,15 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>43930</v>
       </c>
       <c r="B56" s="2">
         <v>55</v>
       </c>
-      <c r="C56" s="2">
-        <v>477826</v>
+      <c r="C56" s="3">
+        <v>488567</v>
       </c>
       <c r="D56" s="2">
         <v>34095</v>
@@ -1726,15 +1707,15 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>43931</v>
       </c>
       <c r="B57" s="2">
         <v>56</v>
       </c>
-      <c r="C57" s="2">
-        <v>512077</v>
+      <c r="C57" s="3">
+        <v>523256</v>
       </c>
       <c r="D57" s="2">
         <v>34251</v>
@@ -1749,15 +1730,15 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>43932</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="C58" s="2">
-        <v>542574</v>
+      <c r="C58" s="3">
+        <v>553625</v>
       </c>
       <c r="D58" s="2">
         <v>30497</v>
@@ -1772,15 +1753,15 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>43933</v>
       </c>
       <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="C59" s="2">
-        <v>570439</v>
+      <c r="C59" s="3">
+        <v>580162</v>
       </c>
       <c r="D59" s="2">
         <v>27865</v>
@@ -1795,15 +1776,15 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>43934</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
       </c>
-      <c r="C60" s="2">
-        <v>597545</v>
+      <c r="C60" s="3">
+        <v>608173</v>
       </c>
       <c r="D60" s="2">
         <v>27106</v>
@@ -1818,15 +1799,15 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>43935</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
       </c>
-      <c r="C61" s="2">
-        <v>624911</v>
+      <c r="C61" s="3">
+        <v>637494</v>
       </c>
       <c r="D61" s="2">
         <v>27446</v>
@@ -1841,15 +1822,15 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>43936</v>
       </c>
       <c r="B62" s="2">
         <v>61</v>
       </c>
-      <c r="C62" s="2">
-        <v>655674</v>
+      <c r="C62" s="3">
+        <v>669407</v>
       </c>
       <c r="D62" s="2">
         <v>30683</v>
@@ -1864,15 +1845,15 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>43937</v>
       </c>
       <c r="B63" s="2">
         <v>62</v>
       </c>
-      <c r="C63" s="2">
-        <v>685827</v>
+      <c r="C63" s="3">
+        <v>700091</v>
       </c>
       <c r="D63" s="2">
         <v>30153</v>
@@ -1887,15 +1868,15 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>43938</v>
       </c>
       <c r="B64" s="2">
         <v>63</v>
       </c>
-      <c r="C64" s="2">
-        <v>718331</v>
+      <c r="C64" s="3">
+        <v>733791</v>
       </c>
       <c r="D64" s="2">
         <v>32504</v>
@@ -1910,15 +1891,15 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>43939</v>
       </c>
       <c r="B65" s="2">
         <v>64</v>
       </c>
-      <c r="C65" s="2">
-        <v>747531</v>
+      <c r="C65" s="3">
+        <v>762827</v>
       </c>
       <c r="D65" s="2">
         <v>29200</v>
@@ -1933,15 +1914,15 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>43940</v>
       </c>
       <c r="B66" s="2">
         <v>65</v>
       </c>
-      <c r="C66" s="2">
-        <v>773732</v>
+      <c r="C66" s="3">
+        <v>788651</v>
       </c>
       <c r="D66" s="2">
         <v>26201</v>
@@ -1956,15 +1937,15 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>43941</v>
       </c>
       <c r="B67" s="2">
         <v>66</v>
       </c>
-      <c r="C67" s="2">
-        <v>801970</v>
+      <c r="C67" s="3">
+        <v>818509</v>
       </c>
       <c r="D67" s="2">
         <v>28238</v>
@@ -1979,15 +1960,15 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>43942</v>
       </c>
       <c r="B68" s="2">
         <v>67</v>
       </c>
-      <c r="C68" s="2">
-        <v>828213</v>
+      <c r="C68" s="3">
+        <v>845516</v>
       </c>
       <c r="D68" s="2">
         <v>26243</v>
@@ -2002,15 +1983,15 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>43943</v>
       </c>
       <c r="B69" s="2">
         <v>68</v>
       </c>
-      <c r="C69" s="2">
-        <v>858537</v>
+      <c r="C69" s="3">
+        <v>877631</v>
       </c>
       <c r="D69" s="2">
         <v>30324</v>
@@ -2025,15 +2006,15 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>43944</v>
       </c>
       <c r="B70" s="2">
         <v>69</v>
       </c>
-      <c r="C70" s="2">
-        <v>890616</v>
+      <c r="C70" s="3">
+        <v>909391</v>
       </c>
       <c r="D70" s="2">
         <v>32079</v>
@@ -2048,15 +2029,15 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>43945</v>
       </c>
       <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="C71" s="2">
-        <v>929746</v>
+      <c r="C71" s="3">
+        <v>945771</v>
       </c>
       <c r="D71" s="2">
         <v>39130</v>
@@ -2071,15 +2052,15 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>43946</v>
       </c>
       <c r="B72" s="2">
         <v>71</v>
       </c>
-      <c r="C72" s="2">
-        <v>965275</v>
+      <c r="C72" s="3">
+        <v>980670</v>
       </c>
       <c r="D72" s="2">
         <v>35529</v>
@@ -2094,15 +2075,15 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>43947</v>
       </c>
       <c r="B73" s="2">
         <v>72</v>
       </c>
-      <c r="C73" s="2">
-        <v>991869</v>
+      <c r="C73" s="3">
+        <v>1007132</v>
       </c>
       <c r="D73" s="2">
         <v>26594</v>
@@ -2117,15 +2098,15 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>43948</v>
       </c>
       <c r="B74" s="2">
         <v>73</v>
       </c>
-      <c r="C74" s="2">
-        <v>1015123</v>
+      <c r="C74" s="3">
+        <v>1031254</v>
       </c>
       <c r="D74" s="2">
         <v>23254</v>
@@ -2140,15 +2121,15 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>43949</v>
       </c>
       <c r="B75" s="2">
         <v>74</v>
       </c>
-      <c r="C75" s="2">
-        <v>1040699</v>
+      <c r="C75" s="3">
+        <v>1057276</v>
       </c>
       <c r="D75" s="2">
         <v>25576</v>
@@ -2163,15 +2144,15 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>43950</v>
       </c>
       <c r="B76" s="2">
         <v>75</v>
       </c>
-      <c r="C76" s="2">
-        <v>1069297</v>
+      <c r="C76" s="3">
+        <v>1086529</v>
       </c>
       <c r="D76" s="2">
         <v>28598</v>
@@ -2186,15 +2167,15 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>43951</v>
       </c>
       <c r="B77" s="2">
         <v>76</v>
       </c>
-      <c r="C77" s="2">
-        <v>1100305</v>
+      <c r="C77" s="3">
+        <v>1118320</v>
       </c>
       <c r="D77" s="2">
         <v>31008</v>
@@ -2209,15 +2190,15 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>43952</v>
       </c>
       <c r="B78" s="2">
         <v>77</v>
       </c>
-      <c r="C78" s="2">
-        <v>1136474</v>
+      <c r="C78" s="3">
+        <v>1154461</v>
       </c>
       <c r="D78" s="2">
         <v>36169</v>
@@ -2232,15 +2213,15 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>43953</v>
       </c>
       <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="C79" s="2">
-        <v>1166346</v>
+      <c r="C79" s="3">
+        <v>1183759</v>
       </c>
       <c r="D79" s="2">
         <v>29872</v>
@@ -2255,15 +2236,15 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>43954</v>
       </c>
       <c r="B80" s="2">
         <v>79</v>
       </c>
-      <c r="C80" s="2">
-        <v>1193782</v>
+      <c r="C80" s="3">
+        <v>1210722</v>
       </c>
       <c r="D80" s="2">
         <v>27436</v>
@@ -2278,15 +2259,15 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>43955</v>
       </c>
       <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="C81" s="2">
-        <v>1218549</v>
+      <c r="C81" s="3">
+        <v>1236666</v>
       </c>
       <c r="D81" s="2">
         <v>24767</v>
@@ -2301,15 +2282,15 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>43956</v>
       </c>
       <c r="B82" s="2">
         <v>81</v>
       </c>
-      <c r="C82" s="2">
-        <v>1243461</v>
+      <c r="C82" s="3">
+        <v>1262599</v>
       </c>
       <c r="D82" s="2">
         <v>24912</v>
@@ -2324,15 +2305,15 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>43957</v>
       </c>
       <c r="B83" s="2">
         <v>82</v>
       </c>
-      <c r="C83" s="2">
-        <v>1269042</v>
+      <c r="C83" s="3">
+        <v>1288545</v>
       </c>
       <c r="D83" s="2">
         <v>25581</v>
@@ -2347,15 +2328,15 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>43958</v>
       </c>
       <c r="B84" s="2">
         <v>83</v>
       </c>
-      <c r="C84" s="2">
-        <v>1298691</v>
+      <c r="C84" s="3">
+        <v>1318169</v>
       </c>
       <c r="D84" s="2">
         <v>29649</v>
@@ -2370,15 +2351,15 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>43959</v>
       </c>
       <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="C85" s="2">
-        <v>1327988</v>
+      <c r="C85" s="3">
+        <v>1347913</v>
       </c>
       <c r="D85" s="2">
         <v>29297</v>
@@ -2393,15 +2374,15 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>43960</v>
       </c>
       <c r="B86" s="2">
         <v>85</v>
       </c>
-      <c r="C86" s="2">
-        <v>1354228</v>
+      <c r="C86" s="3">
+        <v>1373867</v>
       </c>
       <c r="D86" s="2">
         <v>26240</v>
@@ -2416,15 +2397,15 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>43961</v>
       </c>
       <c r="B87" s="2">
         <v>86</v>
       </c>
-      <c r="C87" s="2">
-        <v>1375050</v>
+      <c r="C87" s="3">
+        <v>1394255</v>
       </c>
       <c r="D87" s="2">
         <v>20822</v>
@@ -2439,15 +2420,15 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>43962</v>
       </c>
       <c r="B88" s="2">
         <v>87</v>
       </c>
-      <c r="C88" s="2">
-        <v>1393758</v>
+      <c r="C88" s="3">
+        <v>1413701</v>
       </c>
       <c r="D88" s="2">
         <v>18708</v>
@@ -2462,15 +2443,15 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>43963</v>
       </c>
       <c r="B89" s="2">
         <v>88</v>
       </c>
-      <c r="C89" s="2">
-        <v>1416787</v>
+      <c r="C89" s="3">
+        <v>1437458</v>
       </c>
       <c r="D89" s="2">
         <v>23029</v>
@@ -2485,15 +2466,15 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>43964</v>
       </c>
       <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="C90" s="2">
-        <v>1439182</v>
+      <c r="C90" s="3">
+        <v>1460441</v>
       </c>
       <c r="D90" s="2">
         <v>22395</v>
@@ -2508,15 +2489,15 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>43965</v>
       </c>
       <c r="B91" s="2">
         <v>90</v>
       </c>
-      <c r="C91" s="2">
-        <v>1467281</v>
+      <c r="C91" s="3">
+        <v>1488430</v>
       </c>
       <c r="D91" s="2">
         <v>28099</v>
@@ -2531,15 +2512,15 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>43966</v>
       </c>
       <c r="B92" s="2">
         <v>91</v>
       </c>
-      <c r="C92" s="2">
-        <v>1494909</v>
+      <c r="C92" s="3">
+        <v>1516348</v>
       </c>
       <c r="D92" s="2">
         <v>27628</v>
@@ -2554,15 +2535,15 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>43967</v>
       </c>
       <c r="B93" s="2">
         <v>92</v>
       </c>
-      <c r="C93" s="2">
-        <v>1519245</v>
+      <c r="C93" s="3">
+        <v>1540135</v>
       </c>
       <c r="D93" s="2">
         <v>24336</v>
@@ -2577,15 +2558,15 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>43968</v>
       </c>
       <c r="B94" s="2">
         <v>93</v>
       </c>
-      <c r="C94" s="2">
-        <v>1539452</v>
+      <c r="C94" s="3">
+        <v>1559869</v>
       </c>
       <c r="D94" s="2">
         <v>20207</v>
@@ -2600,15 +2581,15 @@
         <v>884</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>43969</v>
       </c>
       <c r="B95" s="2">
         <v>94</v>
       </c>
-      <c r="C95" s="2">
-        <v>1563000</v>
+      <c r="C95" s="3">
+        <v>1583884</v>
       </c>
       <c r="D95" s="2">
         <v>23548</v>
@@ -2623,15 +2604,15 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>43970</v>
       </c>
       <c r="B96" s="2">
         <v>95</v>
       </c>
-      <c r="C96" s="2">
-        <v>1583804</v>
+      <c r="C96" s="3">
+        <v>1605268</v>
       </c>
       <c r="D96" s="2">
         <v>20804</v>
@@ -2646,15 +2627,15 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>43971</v>
       </c>
       <c r="B97" s="2">
         <v>96</v>
       </c>
-      <c r="C97" s="2">
-        <v>1606480</v>
+      <c r="C97" s="3">
+        <v>1627989</v>
       </c>
       <c r="D97" s="2">
         <v>22676</v>
@@ -2669,15 +2650,15 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>43972</v>
       </c>
       <c r="B98" s="2">
         <v>97</v>
       </c>
-      <c r="C98" s="2">
-        <v>1635325</v>
+      <c r="C98" s="3">
+        <v>1656769</v>
       </c>
       <c r="D98" s="2">
         <v>28845</v>
@@ -2692,15 +2673,15 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>43973</v>
       </c>
       <c r="B99" s="2">
         <v>98</v>
       </c>
-      <c r="C99" s="2">
-        <v>1659995</v>
+      <c r="C99" s="3">
+        <v>1681968</v>
       </c>
       <c r="D99" s="2">
         <v>24670</v>
@@ -2715,15 +2696,15 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>43974</v>
       </c>
       <c r="B100" s="2">
         <v>99</v>
       </c>
-      <c r="C100" s="2">
-        <v>1681937</v>
+      <c r="C100" s="3">
+        <v>1703671</v>
       </c>
       <c r="D100" s="2">
         <v>21942</v>
@@ -2738,15 +2719,15 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>43975</v>
       </c>
       <c r="B101" s="2">
         <v>100</v>
       </c>
-      <c r="C101" s="2">
-        <v>1701871</v>
+      <c r="C101" s="3">
+        <v>1723125</v>
       </c>
       <c r="D101" s="2">
         <v>19934</v>
@@ -2761,15 +2742,15 @@
         <v>627</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>43976</v>
       </c>
       <c r="B102" s="2">
         <v>101</v>
       </c>
-      <c r="C102" s="2">
-        <v>1721795</v>
+      <c r="C102" s="3">
+        <v>1742981</v>
       </c>
       <c r="D102" s="2">
         <v>19924</v>
@@ -2784,15 +2765,15 @@
         <v>637</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>43977</v>
       </c>
       <c r="B103" s="2">
         <v>102</v>
       </c>
-      <c r="C103" s="2">
-        <v>1741199</v>
+      <c r="C103" s="3">
+        <v>1763178</v>
       </c>
       <c r="D103" s="2">
         <v>19404</v>
@@ -2807,15 +2788,15 @@
         <v>786</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>43978</v>
       </c>
       <c r="B104" s="2">
         <v>103</v>
       </c>
-      <c r="C104" s="2">
-        <v>1761953</v>
+      <c r="C104" s="3">
+        <v>1783841</v>
       </c>
       <c r="D104" s="2">
         <v>20754</v>
@@ -2830,15 +2811,15 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>43979</v>
       </c>
       <c r="B105" s="2">
         <v>104</v>
       </c>
-      <c r="C105" s="2">
-        <v>1785039</v>
+      <c r="C105" s="3">
+        <v>1807651</v>
       </c>
       <c r="D105" s="2">
         <v>23086</v>
@@ -2853,15 +2834,15 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>43980</v>
       </c>
       <c r="B106" s="2">
         <v>105</v>
       </c>
-      <c r="C106" s="2">
-        <v>1810737</v>
+      <c r="C106" s="3">
+        <v>1833400</v>
       </c>
       <c r="D106" s="2">
         <v>25698</v>
@@ -2876,15 +2857,15 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>43981</v>
       </c>
       <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="2">
-        <v>1834498</v>
+      <c r="C107" s="3">
+        <v>1857225</v>
       </c>
       <c r="D107" s="2">
         <v>23777</v>
@@ -2899,15 +2880,15 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>43982</v>
       </c>
       <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="2">
-        <v>1855255</v>
+      <c r="C108" s="3">
+        <v>1877850</v>
       </c>
       <c r="D108" s="2">
         <v>20764</v>
@@ -2922,15 +2903,15 @@
         <v>652</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>43983</v>
       </c>
       <c r="B109" s="2">
         <v>108</v>
       </c>
-      <c r="C109" s="2">
-        <v>1877691</v>
+      <c r="C109" s="3">
+        <v>1897438</v>
       </c>
       <c r="D109" s="2">
         <v>22445</v>
@@ -2945,15 +2926,15 @@
         <v>697</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>43984</v>
       </c>
       <c r="B110" s="2">
         <v>109</v>
       </c>
-      <c r="C110" s="2">
-        <v>1899979</v>
+      <c r="C110" s="3">
+        <v>1919935</v>
       </c>
       <c r="D110" s="2">
         <v>22297</v>
@@ -2968,15 +2949,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>43985</v>
       </c>
       <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="2">
-        <v>1920811</v>
+      <c r="C111" s="3">
+        <v>1940896</v>
       </c>
       <c r="D111" s="2">
         <v>20840</v>
@@ -2991,15 +2972,15 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>43986</v>
       </c>
       <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="2">
-        <v>1943660</v>
+      <c r="C112" s="3">
+        <v>1963869</v>
       </c>
       <c r="D112" s="2">
         <v>22858</v>
@@ -3014,15 +2995,15 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>43987</v>
       </c>
       <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="2">
-        <v>1969087</v>
+      <c r="C113" s="3">
+        <v>1989739</v>
       </c>
       <c r="D113" s="2">
         <v>25437</v>
@@ -3037,15 +3018,15 @@
         <v>990</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>43988</v>
       </c>
       <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="2">
-        <v>1991952</v>
+      <c r="C114" s="3">
+        <v>2012918</v>
       </c>
       <c r="D114" s="2">
         <v>22875</v>
@@ -3060,15 +3041,15 @@
         <v>719</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>43989</v>
       </c>
       <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="2">
-        <v>2010884</v>
+      <c r="C115" s="3">
+        <v>2032433</v>
       </c>
       <c r="D115" s="2">
         <v>18939</v>
@@ -3083,15 +3064,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>43990</v>
       </c>
       <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="2">
-        <v>2029954</v>
+      <c r="C116" s="3">
+        <v>2051699</v>
       </c>
       <c r="D116" s="2">
         <v>19075</v>
@@ -3106,15 +3087,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>43991</v>
       </c>
       <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="2">
-        <v>2049037</v>
+      <c r="C117" s="3">
+        <v>2071109</v>
       </c>
       <c r="D117" s="2">
         <v>19095</v>
@@ -3129,15 +3110,15 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>43992</v>
       </c>
       <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="2">
-        <v>2070076</v>
+      <c r="C118" s="3">
+        <v>2092333</v>
       </c>
       <c r="D118" s="2">
         <v>21048</v>
@@ -3152,15 +3133,15 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>43993</v>
       </c>
       <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="2">
-        <v>2093564</v>
+      <c r="C119" s="3">
+        <v>2115952</v>
       </c>
       <c r="D119" s="2">
         <v>23497</v>
@@ -3175,15 +3156,15 @@
         <v>919</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>43994</v>
       </c>
       <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="2">
-        <v>2120968</v>
+      <c r="C120" s="3">
+        <v>2143738</v>
       </c>
       <c r="D120" s="2">
         <v>27415</v>
@@ -3198,15 +3179,15 @@
         <v>803</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>43995</v>
       </c>
       <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="2">
-        <v>2146458</v>
+      <c r="C121" s="3">
+        <v>2169760</v>
       </c>
       <c r="D121" s="2">
         <v>25517</v>
@@ -3221,15 +3202,15 @@
         <v>717</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>43996</v>
       </c>
       <c r="B122" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="2">
-        <v>2166638</v>
+      <c r="C122" s="3">
+        <v>2190528</v>
       </c>
       <c r="D122" s="2">
         <v>20187</v>
@@ -3244,15 +3225,15 @@
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>43997</v>
       </c>
       <c r="B123" s="2">
         <v>122</v>
       </c>
-      <c r="C123" s="2">
-        <v>2187539</v>
+      <c r="C123" s="3">
+        <v>2211893</v>
       </c>
       <c r="D123" s="2">
         <v>20913</v>
@@ -3267,15 +3248,15 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>43998</v>
       </c>
       <c r="B124" s="2">
         <v>123</v>
       </c>
-      <c r="C124" s="2">
-        <v>2213167</v>
+      <c r="C124" s="3">
+        <v>2238055</v>
       </c>
       <c r="D124" s="2">
         <v>25639</v>
@@ -3290,15 +3271,15 @@
         <v>864</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>43999</v>
       </c>
       <c r="B125" s="2">
         <v>124</v>
       </c>
-      <c r="C125" s="2">
-        <v>2239421</v>
+      <c r="C125" s="3">
+        <v>2264447</v>
       </c>
       <c r="D125" s="2">
         <v>26152</v>
@@ -3313,15 +3294,15 @@
         <v>824</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>44000</v>
       </c>
       <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="C126" s="2">
-        <v>2267380</v>
+      <c r="C126" s="3">
+        <v>2292857</v>
       </c>
       <c r="D126" s="2">
         <v>28081</v>
@@ -3336,15 +3317,15 @@
         <v>761</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>44001</v>
       </c>
       <c r="B127" s="2">
         <v>126</v>
       </c>
-      <c r="C127" s="2">
-        <v>2300956</v>
+      <c r="C127" s="3">
+        <v>2327178</v>
       </c>
       <c r="D127" s="2">
         <v>33695</v>
@@ -3359,15 +3340,15 @@
         <v>733</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>44002</v>
       </c>
       <c r="B128" s="2">
         <v>127</v>
       </c>
-      <c r="C128" s="2">
-        <v>2334382</v>
+      <c r="C128" s="3">
+        <v>2361322</v>
       </c>
       <c r="D128" s="2">
         <v>33330</v>
@@ -3382,15 +3363,15 @@
         <v>584</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>44003</v>
       </c>
       <c r="B129" s="2">
         <v>128</v>
       </c>
-      <c r="C129" s="2">
-        <v>2360492</v>
+      <c r="C129" s="3">
+        <v>2387827</v>
       </c>
       <c r="D129" s="2">
         <v>26117</v>
@@ -3405,15 +3386,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>44004</v>
       </c>
       <c r="B130" s="2">
         <v>129</v>
       </c>
-      <c r="C130" s="2">
-        <v>2392026</v>
+      <c r="C130" s="3">
+        <v>2420230</v>
       </c>
       <c r="D130" s="2">
         <v>31538</v>
@@ -3428,15 +3409,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>44005</v>
       </c>
       <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="2">
-        <v>2428088</v>
+      <c r="C131" s="3">
+        <v>2456969</v>
       </c>
       <c r="D131" s="2">
         <v>36093</v>
@@ -3451,15 +3432,15 @@
         <v>876</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>44006</v>
       </c>
       <c r="B132" s="2">
         <v>131</v>
       </c>
-      <c r="C132" s="2">
-        <v>2466517</v>
+      <c r="C132" s="3">
+        <v>2496223</v>
       </c>
       <c r="D132" s="2">
         <v>38447</v>
@@ -3474,15 +3455,15 @@
         <v>825</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>44007</v>
       </c>
       <c r="B133" s="2">
         <v>132</v>
       </c>
-      <c r="C133" s="2">
-        <v>2506744</v>
+      <c r="C133" s="3">
+        <v>2537033</v>
       </c>
       <c r="D133" s="2">
         <v>40247</v>
@@ -3497,15 +3478,15 @@
         <v>659</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>44008</v>
       </c>
       <c r="B134" s="2">
         <v>133</v>
       </c>
-      <c r="C134" s="2">
-        <v>2554104</v>
+      <c r="C134" s="3">
+        <v>2585407</v>
       </c>
       <c r="D134" s="2">
         <v>47388</v>
@@ -3520,15 +3501,15 @@
         <v>668</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>44009</v>
       </c>
       <c r="B135" s="2">
         <v>134</v>
       </c>
-      <c r="C135" s="2">
-        <v>2597692</v>
+      <c r="C135" s="3">
+        <v>2629870</v>
       </c>
       <c r="D135" s="2">
         <v>43588</v>
@@ -3543,15 +3524,15 @@
         <v>518</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>44010</v>
       </c>
       <c r="B136" s="2">
         <v>135</v>
       </c>
-      <c r="C136" s="2">
-        <v>2638249</v>
+      <c r="C136" s="3">
+        <v>2671164</v>
       </c>
       <c r="D136" s="2">
         <v>40588</v>
@@ -3566,15 +3547,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>44011</v>
       </c>
       <c r="B137" s="2">
         <v>136</v>
       </c>
-      <c r="C137" s="2">
-        <v>2683004</v>
+      <c r="C137" s="3">
+        <v>2717539</v>
       </c>
       <c r="D137" s="2">
         <v>44773</v>
@@ -3589,15 +3570,15 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>44012</v>
       </c>
       <c r="B138" s="2">
         <v>137</v>
       </c>
-      <c r="C138" s="2">
-        <v>2729060</v>
+      <c r="C138" s="3">
+        <v>2765141</v>
       </c>
       <c r="D138" s="2">
         <v>46078</v>
@@ -3612,15 +3593,15 @@
         <v>733</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>44013</v>
       </c>
       <c r="B139" s="2">
         <v>138</v>
       </c>
-      <c r="C139" s="2">
-        <v>2781414</v>
+      <c r="C139" s="3">
+        <v>2818369</v>
       </c>
       <c r="D139" s="2">
         <v>52397</v>
@@ -3635,15 +3616,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>44014</v>
       </c>
       <c r="B140" s="2">
         <v>139</v>
       </c>
-      <c r="C140" s="2">
-        <v>2838930</v>
+      <c r="C140" s="3">
+        <v>2877027</v>
       </c>
       <c r="D140" s="2">
         <v>57545</v>
@@ -3658,15 +3639,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>44015</v>
       </c>
       <c r="B141" s="2">
         <v>140</v>
       </c>
-      <c r="C141" s="2">
-        <v>2898529</v>
+      <c r="C141" s="3">
+        <v>2938368</v>
       </c>
       <c r="D141" s="2">
         <v>59636</v>
@@ -3681,15 +3662,15 @@
         <v>631</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>44016</v>
       </c>
       <c r="B142" s="2">
         <v>141</v>
       </c>
-      <c r="C142" s="2">
-        <v>2948523</v>
+      <c r="C142" s="3">
+        <v>2989093</v>
       </c>
       <c r="D142" s="2">
         <v>49994</v>
@@ -3704,15 +3685,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>44017</v>
       </c>
       <c r="B143" s="2">
         <v>142</v>
       </c>
-      <c r="C143" s="2">
-        <v>2994556</v>
+      <c r="C143" s="3">
+        <v>3036467</v>
       </c>
       <c r="D143" s="2">
         <v>46074</v>
@@ -3727,15 +3708,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>44018</v>
       </c>
       <c r="B144" s="2">
         <v>143</v>
       </c>
-      <c r="C144" s="2">
-        <v>3045322</v>
+      <c r="C144" s="3">
+        <v>3088729</v>
       </c>
       <c r="D144" s="2">
         <v>50789</v>
@@ -3750,15 +3731,15 @@
         <v>387</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>44019</v>
       </c>
       <c r="B145" s="2">
         <v>144</v>
       </c>
-      <c r="C145" s="2">
-        <v>3101166</v>
+      <c r="C145" s="3">
+        <v>3145918</v>
       </c>
       <c r="D145" s="2">
         <v>55885</v>
@@ -3773,15 +3754,15 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>44020</v>
       </c>
       <c r="B146" s="2">
         <v>145</v>
       </c>
-      <c r="C146" s="2">
-        <v>3163451</v>
+      <c r="C146" s="3">
+        <v>3209499</v>
       </c>
       <c r="D146" s="2">
         <v>62325</v>
@@ -3796,15 +3777,15 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>44021</v>
       </c>
       <c r="B147" s="2">
         <v>146</v>
       </c>
-      <c r="C147" s="2">
-        <v>3225011</v>
+      <c r="C147" s="3">
+        <v>3272661</v>
       </c>
       <c r="D147" s="2">
         <v>61599</v>
@@ -3819,15 +3800,15 @@
         <v>975</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>44022</v>
       </c>
       <c r="B148" s="2">
         <v>147</v>
       </c>
-      <c r="C148" s="2">
-        <v>3297275</v>
+      <c r="C148" s="3">
+        <v>3346411</v>
       </c>
       <c r="D148" s="2">
         <v>72320</v>
@@ -3842,15 +3823,15 @@
         <v>862</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>44023</v>
       </c>
       <c r="B149" s="2">
         <v>148</v>
       </c>
-      <c r="C149" s="2">
-        <v>3359271</v>
+      <c r="C149" s="3">
+        <v>3410443</v>
       </c>
       <c r="D149" s="2">
         <v>62042</v>
@@ -3865,15 +3846,15 @@
         <v>743</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>44024</v>
       </c>
       <c r="B150" s="2">
         <v>149</v>
       </c>
-      <c r="C150" s="2">
-        <v>3417884</v>
+      <c r="C150" s="3">
+        <v>3470093</v>
       </c>
       <c r="D150" s="2">
         <v>58641</v>
@@ -3888,15 +3869,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>44025</v>
       </c>
       <c r="B151" s="2">
         <v>150</v>
       </c>
-      <c r="C151" s="2">
-        <v>3483664</v>
+      <c r="C151" s="3">
+        <v>3537598</v>
       </c>
       <c r="D151" s="2">
         <v>65816</v>
@@ -3911,15 +3892,15 @@
         <v>476</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>44026</v>
       </c>
       <c r="B152" s="2">
         <v>151</v>
       </c>
-      <c r="C152" s="2">
-        <v>3549630</v>
+      <c r="C152" s="3">
+        <v>3605250</v>
       </c>
       <c r="D152" s="2">
         <v>66013</v>
@@ -3934,15 +3915,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>44027</v>
       </c>
       <c r="B153" s="2">
         <v>152</v>
       </c>
-      <c r="C153" s="2">
-        <v>3621624</v>
+      <c r="C153" s="3">
+        <v>3678901</v>
       </c>
       <c r="D153" s="2">
         <v>72038</v>
@@ -3957,15 +3938,15 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>44028</v>
       </c>
       <c r="B154" s="2">
         <v>153</v>
       </c>
-      <c r="C154" s="2">
-        <v>3695002</v>
+      <c r="C154" s="3">
+        <v>3753640</v>
       </c>
       <c r="D154" s="2">
         <v>73427</v>
@@ -3980,15 +3961,15 @@
         <v>979</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>44029</v>
       </c>
       <c r="B155" s="2">
         <v>154</v>
       </c>
-      <c r="C155" s="2">
-        <v>3769982</v>
+      <c r="C155" s="3">
+        <v>3830503</v>
       </c>
       <c r="D155" s="2">
         <v>75026</v>
@@ -4003,15 +3984,15 @@
         <v>966</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>44030</v>
       </c>
       <c r="B156" s="2">
         <v>155</v>
       </c>
-      <c r="C156" s="2">
-        <v>3833224</v>
+      <c r="C156" s="3">
+        <v>3895598</v>
       </c>
       <c r="D156" s="2">
         <v>63242</v>
@@ -4026,15 +4007,15 @@
         <v>823</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>44031</v>
       </c>
       <c r="B157" s="2">
         <v>156</v>
       </c>
-      <c r="C157" s="2">
-        <v>3898470</v>
+      <c r="C157" s="3">
+        <v>3961869</v>
       </c>
       <c r="D157" s="2">
         <v>65312</v>
@@ -4049,15 +4030,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>44032</v>
       </c>
       <c r="B158" s="2">
         <v>157</v>
       </c>
-      <c r="C158" s="2">
-        <v>3961342</v>
+      <c r="C158" s="3">
+        <v>4026027</v>
       </c>
       <c r="D158" s="2">
         <v>62940</v>
@@ -4072,15 +4053,15 @@
         <v>539</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>44033</v>
       </c>
       <c r="B159" s="2">
         <v>158</v>
       </c>
-      <c r="C159" s="2">
-        <v>4028813</v>
+      <c r="C159" s="3">
+        <v>4095544</v>
       </c>
       <c r="D159" s="2">
         <v>67507</v>
@@ -4095,15 +4076,15 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>44034</v>
       </c>
       <c r="B160" s="2">
         <v>159</v>
       </c>
-      <c r="C160" s="2">
-        <v>4100754</v>
+      <c r="C160" s="3">
+        <v>4168820</v>
       </c>
       <c r="D160" s="2">
         <v>72000</v>
@@ -4118,15 +4099,15 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>44035</v>
       </c>
       <c r="B161" s="2">
         <v>160</v>
       </c>
-      <c r="C161" s="2">
-        <v>4170625</v>
+      <c r="C161" s="3">
+        <v>4240466</v>
       </c>
       <c r="D161" s="2">
         <v>69920</v>
@@ -4141,15 +4122,15 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>44036</v>
       </c>
       <c r="B162" s="2">
         <v>161</v>
       </c>
-      <c r="C162" s="2">
-        <v>4249027</v>
+      <c r="C162" s="3">
+        <v>4320243</v>
       </c>
       <c r="D162" s="2">
         <v>78446</v>
@@ -4164,15 +4145,15 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>44037</v>
       </c>
       <c r="B163" s="2">
         <v>162</v>
       </c>
-      <c r="C163" s="2">
-        <v>4317231</v>
+      <c r="C163" s="3">
+        <v>4390298</v>
       </c>
       <c r="D163" s="2">
         <v>68204</v>
@@ -4187,15 +4168,15 @@
         <v>926</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>44038</v>
       </c>
       <c r="B164" s="2">
         <v>163</v>
       </c>
-      <c r="C164" s="2">
-        <v>4373730</v>
+      <c r="C164" s="3">
+        <v>4447857</v>
       </c>
       <c r="D164" s="2">
         <v>56581</v>
@@ -4210,15 +4191,15 @@
         <v>462</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>44039</v>
       </c>
       <c r="B165" s="2">
         <v>164</v>
       </c>
-      <c r="C165" s="2">
-        <v>4435500</v>
+      <c r="C165" s="3">
+        <v>4510735</v>
       </c>
       <c r="D165" s="2">
         <v>61820</v>
@@ -4233,15 +4214,15 @@
         <v>597</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>44040</v>
       </c>
       <c r="B166" s="2">
         <v>165</v>
       </c>
-      <c r="C166" s="2">
-        <v>4500545</v>
+      <c r="C166" s="3">
+        <v>4577625</v>
       </c>
       <c r="D166" s="2">
         <v>65069</v>
@@ -4256,15 +4237,15 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>44041</v>
       </c>
       <c r="B167" s="2">
         <v>166</v>
       </c>
-      <c r="C167" s="2">
-        <v>4565831</v>
+      <c r="C167" s="3">
+        <v>4643977</v>
       </c>
       <c r="D167" s="2">
         <v>65323</v>
@@ -4279,15 +4260,15 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>44042</v>
       </c>
       <c r="B168" s="2">
         <v>167</v>
       </c>
-      <c r="C168" s="2">
-        <v>4634380</v>
+      <c r="C168" s="3">
+        <v>4714388</v>
       </c>
       <c r="D168" s="2">
         <v>68585</v>
@@ -4302,15 +4283,15 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>44043</v>
       </c>
       <c r="B169" s="2">
         <v>168</v>
       </c>
-      <c r="C169" s="2">
-        <v>4705455</v>
+      <c r="C169" s="3">
+        <v>4788633</v>
       </c>
       <c r="D169" s="2">
         <v>71113</v>
@@ -4325,15 +4306,15 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>44044</v>
       </c>
       <c r="B170" s="2">
         <v>169</v>
       </c>
-      <c r="C170" s="2">
-        <v>4763990</v>
+      <c r="C170" s="3">
+        <v>4849018</v>
       </c>
       <c r="D170" s="2">
         <v>58535</v>
@@ -4348,15 +4329,15 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>44045</v>
       </c>
       <c r="B171" s="2">
         <v>170</v>
       </c>
-      <c r="C171" s="2">
-        <v>4813552</v>
+      <c r="C171" s="3">
+        <v>4899426</v>
       </c>
       <c r="D171" s="2">
         <v>49636</v>
@@ -4371,15 +4352,15 @@
         <v>467</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>44046</v>
       </c>
       <c r="B172" s="2">
         <v>171</v>
       </c>
-      <c r="C172" s="2">
-        <v>4862174</v>
+      <c r="C172" s="3">
+        <v>4949814</v>
       </c>
       <c r="D172" s="2">
         <v>48646</v>
@@ -4394,15 +4375,15 @@
         <v>567</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>44047</v>
       </c>
       <c r="B173" s="2">
         <v>172</v>
       </c>
-      <c r="C173" s="2">
-        <v>4918420</v>
+      <c r="C173" s="3">
+        <v>5005242</v>
       </c>
       <c r="D173" s="2">
         <v>54504</v>
@@ -4417,15 +4398,15 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>44048</v>
       </c>
       <c r="B174" s="2">
         <v>173</v>
       </c>
-      <c r="C174" s="2">
-        <v>4976568</v>
+      <c r="C174" s="3">
+        <v>5061486</v>
       </c>
       <c r="D174" s="2">
         <v>55148</v>
@@ -4440,15 +4421,15 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>44049</v>
       </c>
       <c r="B175" s="2">
         <v>174</v>
       </c>
-      <c r="C175" s="2">
-        <v>5032278</v>
+      <c r="C175" s="3">
+        <v>5121946</v>
       </c>
       <c r="D175" s="2">
         <v>58710</v>
@@ -4463,15 +4444,15 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>44050</v>
       </c>
       <c r="B176" s="2">
         <v>175</v>
       </c>
-      <c r="C176" s="2">
-        <v>5095524</v>
+      <c r="C176" s="3">
+        <v>5186422</v>
       </c>
       <c r="D176" s="2">
         <v>63246</v>
@@ -4486,15 +4467,15 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>44051</v>
       </c>
       <c r="B177" s="2">
         <v>176</v>
       </c>
-      <c r="C177" s="2">
-        <v>5151595</v>
+      <c r="C177" s="3">
+        <v>5244224</v>
       </c>
       <c r="D177" s="2">
         <v>56071</v>
@@ -4509,15 +4490,15 @@
         <v>989</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>44052</v>
       </c>
       <c r="B178" s="2">
         <v>177</v>
       </c>
-      <c r="C178" s="2">
-        <v>5199444</v>
+      <c r="C178" s="3">
+        <v>5293624</v>
       </c>
       <c r="D178" s="2">
         <v>47849</v>
@@ -4532,15 +4513,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>44053</v>
       </c>
       <c r="B179" s="2">
         <v>178</v>
       </c>
-      <c r="C179" s="2">
-        <v>5251446</v>
+      <c r="C179" s="3">
+        <v>5343997</v>
       </c>
       <c r="D179" s="2">
         <v>49800</v>
@@ -4555,15 +4536,15 @@
         <v>569</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>44054</v>
       </c>
       <c r="B180" s="2">
         <v>179</v>
       </c>
-      <c r="C180" s="2">
-        <v>5305957</v>
+      <c r="C180" s="3">
+        <v>5399321</v>
       </c>
       <c r="D180" s="2">
         <v>54519</v>
@@ -4578,15 +4559,15 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>44055</v>
       </c>
       <c r="B181" s="2">
         <v>180</v>
       </c>
-      <c r="C181" s="2">
-        <v>5360302</v>
+      <c r="C181" s="3">
+        <v>5455703</v>
       </c>
       <c r="D181" s="2">
         <v>54345</v>
@@ -4601,15 +4582,15 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>44056</v>
       </c>
       <c r="B182" s="2">
         <v>181</v>
       </c>
-      <c r="C182" s="2">
-        <v>5415666</v>
+      <c r="C182" s="3">
+        <v>5510600</v>
       </c>
       <c r="D182" s="2">
         <v>55364</v>
@@ -4624,15 +4605,15 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>44057</v>
       </c>
       <c r="B183" s="2">
         <v>182</v>
       </c>
-      <c r="C183" s="2">
-        <v>5476266</v>
+      <c r="C183" s="3">
+        <v>5572665</v>
       </c>
       <c r="D183" s="2">
         <v>60600</v>
@@ -4647,15 +4628,15 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>44058</v>
       </c>
       <c r="B184" s="2">
         <v>183</v>
       </c>
-      <c r="C184" s="2">
-        <v>5529789</v>
+      <c r="C184" s="3">
+        <v>5626173</v>
       </c>
       <c r="D184" s="2">
         <v>53523</v>
@@ -4670,15 +4651,15 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>44059</v>
       </c>
       <c r="B185" s="2">
         <v>184</v>
       </c>
-      <c r="C185" s="2">
-        <v>5566632</v>
+      <c r="C185" s="3">
+        <v>5665275</v>
       </c>
       <c r="D185" s="2">
         <v>36843</v>
@@ -4693,15 +4674,15 @@
         <v>522</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>44060</v>
       </c>
       <c r="B186" s="2">
         <v>185</v>
       </c>
-      <c r="C186" s="2">
-        <v>5611975</v>
+      <c r="C186" s="3">
+        <v>5706985</v>
       </c>
       <c r="D186" s="2">
         <v>40560</v>
@@ -4716,15 +4697,15 @@
         <v>589</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>44061</v>
       </c>
       <c r="B187" s="2">
         <v>186</v>
       </c>
-      <c r="C187" s="2">
-        <v>5655974</v>
+      <c r="C187" s="3">
+        <v>5751548</v>
       </c>
       <c r="D187" s="2">
         <v>43999</v>
@@ -4739,15 +4720,15 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>44062</v>
       </c>
       <c r="B188" s="2">
         <v>187</v>
       </c>
-      <c r="C188" s="2">
-        <v>5701761</v>
+      <c r="C188" s="3">
+        <v>5797308</v>
       </c>
       <c r="D188" s="2">
         <v>44973</v>
@@ -4762,15 +4743,15 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>44063</v>
       </c>
       <c r="B189" s="2">
         <v>188</v>
       </c>
-      <c r="C189" s="2">
-        <v>5747118</v>
+      <c r="C189" s="3">
+        <v>5843087</v>
       </c>
       <c r="D189" s="2">
         <v>45357</v>
@@ -4785,15 +4766,15 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>44064</v>
       </c>
       <c r="B190" s="2">
         <v>189</v>
       </c>
-      <c r="C190" s="2">
-        <v>5797599</v>
+      <c r="C190" s="3">
+        <v>5894530</v>
       </c>
       <c r="D190" s="2">
         <v>50481</v>
@@ -4808,15 +4789,15 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>44065</v>
       </c>
       <c r="B191" s="2">
         <v>190</v>
       </c>
-      <c r="C191" s="2">
-        <v>5841428</v>
+      <c r="C191" s="3">
+        <v>5940173</v>
       </c>
       <c r="D191" s="2">
         <v>43829</v>
@@ -4831,15 +4812,15 @@
         <v>974</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>44066</v>
       </c>
       <c r="B192" s="2">
         <v>191</v>
       </c>
-      <c r="C192" s="2">
-        <v>5874146</v>
+      <c r="C192" s="3">
+        <v>5974270</v>
       </c>
       <c r="D192" s="2">
         <v>32718</v>
@@ -4854,15 +4835,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>44067</v>
       </c>
       <c r="B193" s="2">
         <v>192</v>
       </c>
-      <c r="C193" s="2">
-        <v>5915630</v>
+      <c r="C193" s="3">
+        <v>6015701</v>
       </c>
       <c r="D193" s="2">
         <v>41484</v>
@@ -4877,15 +4858,15 @@
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>44068</v>
       </c>
       <c r="B194" s="2">
         <v>193</v>
       </c>
-      <c r="C194" s="2">
-        <v>5955728</v>
+      <c r="C194" s="3">
+        <v>6056512</v>
       </c>
       <c r="D194" s="2">
         <v>40098</v>
@@ -4900,15 +4881,15 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>44069</v>
       </c>
       <c r="B195" s="2">
         <v>194</v>
       </c>
-      <c r="C195" s="2">
-        <v>6000348</v>
+      <c r="C195" s="3">
+        <v>6102146</v>
       </c>
       <c r="D195" s="2">
         <v>44620</v>
@@ -4923,15 +4904,15 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>44070</v>
       </c>
       <c r="B196" s="2">
         <v>195</v>
       </c>
-      <c r="C196" s="2">
-        <v>6046634</v>
+      <c r="C196" s="3">
+        <v>6148465</v>
       </c>
       <c r="D196" s="2">
         <v>46286</v>
@@ -4946,15 +4927,15 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>44071</v>
       </c>
       <c r="B197" s="2">
         <v>196</v>
       </c>
-      <c r="C197" s="2">
-        <v>6096595</v>
+      <c r="C197" s="3">
+        <v>6197850</v>
       </c>
       <c r="D197" s="2">
         <v>49657</v>
@@ -4969,15 +4950,15 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>44072</v>
       </c>
       <c r="B198" s="2">
         <v>197</v>
       </c>
-      <c r="C198" s="2">
-        <v>6139255</v>
+      <c r="C198" s="3">
+        <v>6242394</v>
       </c>
       <c r="D198" s="2">
         <v>42660</v>
@@ -4992,15 +4973,15 @@
         <v>954</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>44073</v>
       </c>
       <c r="B199" s="2">
         <v>198</v>
       </c>
-      <c r="C199" s="2">
-        <v>6173236</v>
+      <c r="C199" s="3">
+        <v>6278327</v>
       </c>
       <c r="D199" s="2">
         <v>33981</v>
@@ -5015,15 +4996,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>44074</v>
       </c>
       <c r="B200" s="2">
         <v>199</v>
       </c>
-      <c r="C200" s="2">
-        <v>6205551</v>
+      <c r="C200" s="3">
+        <v>6317362</v>
       </c>
       <c r="D200" s="2">
         <v>38566</v>
@@ -5038,15 +5019,15 @@
         <v>512</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>44075</v>
       </c>
       <c r="B201" s="2">
         <v>200</v>
       </c>
-      <c r="C201" s="2">
-        <v>6247527</v>
+      <c r="C201" s="3">
+        <v>6360209</v>
       </c>
       <c r="D201" s="2">
         <v>41976</v>
@@ -5061,15 +5042,15 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>44076</v>
       </c>
       <c r="B202" s="2">
         <v>201</v>
       </c>
-      <c r="C202" s="2">
-        <v>6288735</v>
+      <c r="C202" s="3">
+        <v>6401778</v>
       </c>
       <c r="D202" s="2">
         <v>41208</v>
@@ -5084,15 +5065,15 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>44077</v>
       </c>
       <c r="B203" s="2">
         <v>202</v>
       </c>
-      <c r="C203" s="2">
-        <v>6334199</v>
+      <c r="C203" s="3">
+        <v>6447668</v>
       </c>
       <c r="D203" s="2">
         <v>45464</v>
@@ -5107,15 +5088,15 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>44078</v>
       </c>
       <c r="B204" s="2">
         <v>203</v>
       </c>
-      <c r="C204" s="2">
-        <v>6387048</v>
+      <c r="C204" s="3">
+        <v>6501261</v>
       </c>
       <c r="D204" s="2">
         <v>52849</v>
@@ -5130,15 +5111,15 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>44079</v>
       </c>
       <c r="B205" s="2">
         <v>204</v>
       </c>
-      <c r="C205" s="2">
-        <v>6458717</v>
+      <c r="C205" s="3">
+        <v>6544760</v>
       </c>
       <c r="D205" s="2">
         <v>42092</v>
@@ -5153,15 +5134,15 @@
         <v>707</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>44080</v>
       </c>
       <c r="B206" s="2">
         <v>205</v>
       </c>
-      <c r="C206" s="2">
-        <v>6491226</v>
+      <c r="C206" s="3">
+        <v>6577847</v>
       </c>
       <c r="D206" s="2">
         <v>31110</v>
@@ -5176,15 +5157,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>44081</v>
       </c>
       <c r="B207" s="2">
         <v>206</v>
       </c>
-      <c r="C207" s="2">
-        <v>6516987</v>
+      <c r="C207" s="3">
+        <v>6604200</v>
       </c>
       <c r="D207" s="2">
         <v>25325</v>
@@ -5199,15 +5180,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>44082</v>
       </c>
       <c r="B208" s="2">
         <v>207</v>
       </c>
-      <c r="C208" s="2">
-        <v>6545504</v>
+      <c r="C208" s="3">
+        <v>6633070</v>
       </c>
       <c r="D208" s="2">
         <v>28517</v>
@@ -5222,15 +5203,15 @@
         <v>485</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>44083</v>
       </c>
       <c r="B209" s="2">
         <v>208</v>
       </c>
-      <c r="C209" s="2">
-        <v>6580900</v>
+      <c r="C209" s="3">
+        <v>6669112</v>
       </c>
       <c r="D209" s="2">
         <v>35396</v>
@@ -5245,15 +5226,15 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>44084</v>
       </c>
       <c r="B210" s="2">
         <v>209</v>
       </c>
-      <c r="C210" s="2">
-        <v>6620880</v>
+      <c r="C210" s="3">
+        <v>6709061</v>
       </c>
       <c r="D210" s="2">
         <v>39980</v>
@@ -5268,15 +5249,15 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>44085</v>
       </c>
       <c r="B211" s="2">
         <v>210</v>
       </c>
-      <c r="C211" s="2">
-        <v>6667723</v>
+      <c r="C211" s="3">
+        <v>6756619</v>
       </c>
       <c r="D211" s="2">
         <v>46843</v>
@@ -5291,15 +5272,15 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>44086</v>
       </c>
       <c r="B212" s="2">
         <v>211</v>
       </c>
-      <c r="C212" s="2">
-        <v>6707236</v>
+      <c r="C212" s="3">
+        <v>6796598</v>
       </c>
       <c r="D212" s="2">
         <v>39513</v>
@@ -5314,15 +5295,15 @@
         <v>710</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>44087</v>
       </c>
       <c r="B213" s="2">
         <v>212</v>
       </c>
-      <c r="C213" s="2">
-        <v>6740521</v>
+      <c r="C213" s="3">
+        <v>6830441</v>
       </c>
       <c r="D213" s="2">
         <v>33285</v>
@@ -5337,15 +5318,15 @@
         <v>395</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>44088</v>
       </c>
       <c r="B214" s="2">
         <v>213</v>
       </c>
-      <c r="C214" s="2">
-        <v>6778689</v>
+      <c r="C214" s="3">
+        <v>6869336</v>
       </c>
       <c r="D214" s="2">
         <v>38168</v>
@@ -5360,15 +5341,15 @@
         <v>482</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>44089</v>
       </c>
       <c r="B215" s="2">
         <v>214</v>
       </c>
-      <c r="C215" s="2">
-        <v>6815369</v>
+      <c r="C215" s="3">
+        <v>6906552</v>
       </c>
       <c r="D215" s="2">
         <v>36680</v>
@@ -5383,15 +5364,15 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>44090</v>
       </c>
       <c r="B216" s="2">
         <v>215</v>
       </c>
-      <c r="C216" s="2">
-        <v>6855776</v>
+      <c r="C216" s="3">
+        <v>6947130</v>
       </c>
       <c r="D216" s="2">
         <v>40407</v>
@@ -5406,15 +5387,15 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>44091</v>
       </c>
       <c r="B217" s="2">
         <v>216</v>
       </c>
-      <c r="C217" s="2">
-        <v>6902299</v>
+      <c r="C217" s="3">
+        <v>6994071</v>
       </c>
       <c r="D217" s="2">
         <v>46523</v>
@@ -5429,15 +5410,15 @@
         <v>880</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>44092</v>
       </c>
       <c r="B218" s="2">
         <v>217</v>
       </c>
-      <c r="C218" s="2">
-        <v>6953863</v>
+      <c r="C218" s="3">
+        <v>7046113</v>
       </c>
       <c r="D218" s="2">
         <v>51564</v>
@@ -5452,15 +5433,15 @@
         <v>955</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>44093</v>
       </c>
       <c r="B219" s="2">
         <v>218</v>
       </c>
-      <c r="C219" s="2">
-        <v>6997615</v>
+      <c r="C219" s="3">
+        <v>7090632</v>
       </c>
       <c r="D219" s="2">
         <v>43752</v>
@@ -5475,15 +5456,15 @@
         <v>659</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>44094</v>
       </c>
       <c r="B220" s="2">
         <v>219</v>
       </c>
-      <c r="C220" s="2">
-        <v>7031111</v>
+      <c r="C220" s="3">
+        <v>7124850</v>
       </c>
       <c r="D220" s="2">
         <v>33496</v>
@@ -5498,15 +5479,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>44095</v>
       </c>
       <c r="B221" s="2">
         <v>220</v>
       </c>
-      <c r="C221" s="2">
-        <v>7067657</v>
+      <c r="C221" s="3">
+        <v>7161895</v>
       </c>
       <c r="D221" s="2">
         <v>36546</v>
@@ -5521,15 +5502,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>44096</v>
       </c>
       <c r="B222" s="2">
         <v>221</v>
       </c>
-      <c r="C222" s="2">
-        <v>7103482</v>
+      <c r="C222" s="3">
+        <v>7198257</v>
       </c>
       <c r="D222" s="2">
         <v>35825</v>
@@ -5544,15 +5525,15 @@
         <v>979</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>44097</v>
       </c>
       <c r="B223" s="2">
         <v>222</v>
       </c>
-      <c r="C223" s="2">
-        <v>7145224</v>
+      <c r="C223" s="3">
+        <v>7240043</v>
       </c>
       <c r="D223" s="2">
         <v>41742</v>
@@ -5567,15 +5548,15 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>44098</v>
       </c>
       <c r="B224" s="2">
         <v>223</v>
       </c>
-      <c r="C224" s="2">
-        <v>7190726</v>
+      <c r="C224" s="3">
+        <v>7285916</v>
       </c>
       <c r="D224" s="2">
         <v>45502</v>
@@ -5590,15 +5571,15 @@
         <v>925</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>44099</v>
       </c>
       <c r="B225" s="2">
         <v>224</v>
       </c>
-      <c r="C225" s="2">
-        <v>7244355</v>
+      <c r="C225" s="3">
+        <v>7340233</v>
       </c>
       <c r="D225" s="2">
         <v>53629</v>
@@ -5613,15 +5594,15 @@
         <v>895</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>44100</v>
       </c>
       <c r="B226" s="2">
         <v>225</v>
       </c>
-      <c r="C226" s="2">
-        <v>7287561</v>
+      <c r="C226" s="3">
+        <v>7384255</v>
       </c>
       <c r="D226" s="2">
         <v>43206</v>
@@ -5636,15 +5617,15 @@
         <v>737</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>44101</v>
       </c>
       <c r="B227" s="2">
         <v>226</v>
       </c>
-      <c r="C227" s="2">
-        <v>7310901</v>
+      <c r="C227" s="3">
+        <v>7418429</v>
       </c>
       <c r="D227" s="2">
         <v>34048</v>
@@ -5659,15 +5640,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>44102</v>
       </c>
       <c r="B228" s="2">
         <v>227</v>
       </c>
-      <c r="C228" s="2">
-        <v>7344949</v>
+      <c r="C228" s="3">
+        <v>7456549</v>
       </c>
       <c r="D228" s="2">
         <v>37343</v>
@@ -5682,15 +5663,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>44103</v>
       </c>
       <c r="B229" s="2">
         <v>228</v>
       </c>
-      <c r="C229" s="2">
-        <v>7382292</v>
+      <c r="C229" s="3">
+        <v>7501110</v>
       </c>
       <c r="D229" s="2">
         <v>44390</v>
@@ -5705,15 +5686,15 @@
         <v>976</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>44104</v>
       </c>
       <c r="B230" s="2">
         <v>229</v>
       </c>
-      <c r="C230" s="2">
-        <v>7426682</v>
+      <c r="C230" s="3">
+        <v>7541996</v>
       </c>
       <c r="D230" s="2">
         <v>41070</v>
@@ -5728,15 +5709,15 @@
         <v>956</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>44105</v>
       </c>
       <c r="B231" s="2">
         <v>230</v>
       </c>
-      <c r="C231" s="2">
-        <v>7467752</v>
+      <c r="C231" s="3">
+        <v>7589957</v>
       </c>
       <c r="D231" s="2">
         <v>47626</v>
@@ -5751,15 +5732,15 @@
         <v>918</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>44106</v>
       </c>
       <c r="B232" s="2">
         <v>231</v>
       </c>
-      <c r="C232" s="2">
-        <v>7515378</v>
+      <c r="C232" s="3">
+        <v>7642735</v>
       </c>
       <c r="D232" s="2">
         <v>52250</v>
@@ -5774,15 +5755,15 @@
         <v>864</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>44107</v>
       </c>
       <c r="B233" s="2">
         <v>232</v>
       </c>
-      <c r="C233" s="2">
-        <v>7567628</v>
+      <c r="C233" s="3">
+        <v>7693701</v>
       </c>
       <c r="D233" s="2">
         <v>50560</v>
@@ -5797,15 +5778,15 @@
         <v>761</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>44108</v>
       </c>
       <c r="B234" s="2">
         <v>233</v>
       </c>
-      <c r="C234" s="2">
-        <v>7618188</v>
+      <c r="C234" s="3">
+        <v>7728407</v>
       </c>
       <c r="D234" s="2">
         <v>34159</v>
@@ -5820,15 +5801,15 @@
         <v>336</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>44109</v>
       </c>
       <c r="B235" s="2">
         <v>234</v>
       </c>
-      <c r="C235" s="2">
-        <v>7652347</v>
+      <c r="C235" s="3">
+        <v>7770291</v>
       </c>
       <c r="D235" s="2">
         <v>41376</v>
@@ -5843,15 +5824,15 @@
         <v>425</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>44110</v>
       </c>
       <c r="B236" s="2">
         <v>235</v>
       </c>
-      <c r="C236" s="2">
-        <v>7693723</v>
+      <c r="C236" s="3">
+        <v>7815123</v>
       </c>
       <c r="D236" s="2">
         <v>44694</v>
@@ -5866,15 +5847,15 @@
         <v>808</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>44111</v>
       </c>
       <c r="B237" s="2">
         <v>236</v>
       </c>
-      <c r="C237" s="2">
-        <v>7738417</v>
+      <c r="C237" s="3">
+        <v>7864428</v>
       </c>
       <c r="D237" s="2">
         <v>49429</v>
@@ -5889,15 +5870,15 @@
         <v>929</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>44112</v>
       </c>
       <c r="B238" s="2">
         <v>237</v>
       </c>
-      <c r="C238" s="2">
-        <v>7787846</v>
+      <c r="C238" s="3">
+        <v>7921658</v>
       </c>
       <c r="D238" s="2">
         <v>57329</v>
@@ -5912,15 +5893,15 @@
         <v>958</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>44113</v>
       </c>
       <c r="B239" s="2">
         <v>238</v>
       </c>
-      <c r="C239" s="2">
-        <v>7845175</v>
+      <c r="C239" s="3">
+        <v>7983547</v>
       </c>
       <c r="D239" s="2">
         <v>61063</v>
@@ -5935,15 +5916,15 @@
         <v>909</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>44114</v>
       </c>
       <c r="B240" s="2">
         <v>239</v>
       </c>
-      <c r="C240" s="2">
-        <v>7960709</v>
+      <c r="C240" s="3">
+        <v>8038475</v>
       </c>
       <c r="D240" s="2">
         <v>54471</v>
@@ -5958,15 +5939,15 @@
         <v>926</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>44115</v>
       </c>
       <c r="B241" s="2">
         <v>240</v>
       </c>
-      <c r="C241" s="2">
-        <v>8002876</v>
+      <c r="C241" s="3">
+        <v>8081328</v>
       </c>
       <c r="D241" s="2">
         <v>42167</v>
@@ -5981,15 +5962,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>44116</v>
       </c>
       <c r="B242" s="2">
         <v>241</v>
       </c>
-      <c r="C242" s="2">
-        <v>8048946</v>
+      <c r="C242" s="3">
+        <v>8128279</v>
       </c>
       <c r="D242" s="2">
         <v>46070</v>
@@ -6004,15 +5985,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>44117</v>
       </c>
       <c r="B243" s="2">
         <v>242</v>
       </c>
-      <c r="C243" s="2">
-        <v>8100570</v>
+      <c r="C243" s="3">
+        <v>8180354</v>
       </c>
       <c r="D243" s="2">
         <v>51624</v>
@@ -6027,15 +6008,15 @@
         <v>845</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>44118</v>
       </c>
       <c r="B244" s="2">
         <v>243</v>
       </c>
-      <c r="C244" s="2">
-        <v>8160314</v>
+      <c r="C244" s="3">
+        <v>8239648</v>
       </c>
       <c r="D244" s="2">
         <v>59744</v>
@@ -6050,15 +6031,15 @@
         <v>969</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>44119</v>
       </c>
       <c r="B245" s="2">
         <v>244</v>
       </c>
-      <c r="C245" s="2">
-        <v>8226538</v>
+      <c r="C245" s="3">
+        <v>8307167</v>
       </c>
       <c r="D245" s="2">
         <v>66224</v>
@@ -6073,15 +6054,15 @@
         <v>873</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>44120</v>
       </c>
       <c r="B246" s="2">
         <v>245</v>
       </c>
-      <c r="C246" s="2">
-        <v>8298288</v>
+      <c r="C246" s="3">
+        <v>8378920</v>
       </c>
       <c r="D246" s="2">
         <v>71750</v>
@@ -6096,15 +6077,15 @@
         <v>927</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>44121</v>
       </c>
       <c r="B247" s="2">
         <v>246</v>
       </c>
-      <c r="C247" s="2">
-        <v>8356737</v>
+      <c r="C247" s="3">
+        <v>8438680</v>
       </c>
       <c r="D247" s="2">
         <v>58750</v>
@@ -6119,15 +6100,15 @@
         <v>655</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>44122</v>
       </c>
       <c r="B248" s="2">
         <v>247</v>
       </c>
-      <c r="C248" s="2">
-        <v>8408357</v>
+      <c r="C248" s="3">
+        <v>8491006</v>
       </c>
       <c r="D248" s="2">
         <v>51620</v>
@@ -6142,15 +6123,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>44123</v>
       </c>
       <c r="B249" s="2">
         <v>248</v>
       </c>
-      <c r="C249" s="2">
-        <v>8467347</v>
+      <c r="C249" s="3">
+        <v>8550629</v>
       </c>
       <c r="D249" s="2">
         <v>58990</v>
@@ -6165,15 +6146,15 @@
         <v>452</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>44124</v>
       </c>
       <c r="B250" s="2">
         <v>249</v>
       </c>
-      <c r="C250" s="2">
-        <v>8530224</v>
+      <c r="C250" s="3">
+        <v>8613841</v>
       </c>
       <c r="D250" s="2">
         <v>62877</v>
@@ -6188,15 +6169,15 @@
         <v>948</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>44125</v>
       </c>
       <c r="B251" s="2">
         <v>250</v>
       </c>
-      <c r="C251" s="2">
-        <v>8594583</v>
+      <c r="C251" s="3">
+        <v>8678745</v>
       </c>
       <c r="D251" s="2">
         <v>64359</v>
@@ -6211,15 +6192,15 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>44126</v>
       </c>
       <c r="B252" s="2">
         <v>251</v>
       </c>
-      <c r="C252" s="2">
-        <v>8669266</v>
+      <c r="C252" s="3">
+        <v>8753273</v>
       </c>
       <c r="D252" s="2">
         <v>74683</v>
@@ -6234,15 +6215,15 @@
         <v>972</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>44127</v>
       </c>
       <c r="B253" s="2">
         <v>252</v>
       </c>
-      <c r="C253" s="2">
-        <v>8750698</v>
+      <c r="C253" s="3">
+        <v>8836367</v>
       </c>
       <c r="D253" s="2">
         <v>81432</v>
@@ -6257,15 +6238,15 @@
         <v>902</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>44128</v>
       </c>
       <c r="B254" s="2">
         <v>253</v>
       </c>
-      <c r="C254" s="2">
-        <v>8831174</v>
+      <c r="C254" s="3">
+        <v>8916891</v>
       </c>
       <c r="D254" s="2">
         <v>80476</v>
@@ -6280,15 +6261,15 @@
         <v>787</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>44129</v>
       </c>
       <c r="B255" s="2">
         <v>254</v>
       </c>
-      <c r="C255" s="2">
-        <v>8894911</v>
+      <c r="C255" s="3">
+        <v>8981857</v>
       </c>
       <c r="D255" s="2">
         <v>63737</v>
@@ -6303,15 +6284,15 @@
         <v>442</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>44130</v>
       </c>
       <c r="B256" s="2">
         <v>255</v>
       </c>
-      <c r="C256" s="2">
-        <v>8964985</v>
+      <c r="C256" s="3">
+        <v>9052840</v>
       </c>
       <c r="D256" s="2">
         <v>70074</v>
@@ -6326,15 +6307,15 @@
         <v>529</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>44131</v>
       </c>
       <c r="B257" s="2">
         <v>256</v>
       </c>
-      <c r="C257" s="2">
-        <v>9041191</v>
+      <c r="C257" s="3">
+        <v>9129601</v>
       </c>
       <c r="D257" s="2">
         <v>76206</v>
@@ -6349,15 +6330,15 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>44132</v>
       </c>
       <c r="B258" s="2">
         <v>257</v>
       </c>
-      <c r="C258" s="2">
-        <v>9123002</v>
+      <c r="C258" s="3">
+        <v>9211025</v>
       </c>
       <c r="D258" s="2">
         <v>81811</v>
@@ -6372,15 +6353,15 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>44133</v>
       </c>
       <c r="B259" s="2">
         <v>258</v>
       </c>
-      <c r="C259" s="2">
-        <v>9214836</v>
+      <c r="C259" s="3">
+        <v>9303609</v>
       </c>
       <c r="D259" s="2">
         <v>91834</v>
@@ -6395,15 +6376,15 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>44134</v>
       </c>
       <c r="B260" s="2">
         <v>259</v>
       </c>
-      <c r="C260" s="2">
-        <v>9316297</v>
+      <c r="C260" s="3">
+        <v>9405154</v>
       </c>
       <c r="D260" s="2">
         <v>101461</v>
@@ -6418,15 +6399,15 @@
         <v>987</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>44135</v>
       </c>
       <c r="B261" s="2">
         <v>260</v>
       </c>
-      <c r="C261" s="2">
-        <v>9402590</v>
+      <c r="C261" s="3">
+        <v>9493883</v>
       </c>
       <c r="D261" s="2">
         <v>86293</v>
@@ -6439,6 +6420,1359 @@
       </c>
       <c r="G261" s="2">
         <v>914</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B262" s="2">
+        <v>261</v>
+      </c>
+      <c r="C262" s="3">
+        <v>9571802</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B263" s="2">
+        <v>262</v>
+      </c>
+      <c r="C263" s="3">
+        <v>9662378</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B264" s="2">
+        <v>263</v>
+      </c>
+      <c r="C264" s="3">
+        <v>9758370</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B265" s="2">
+        <v>264</v>
+      </c>
+      <c r="C265" s="3">
+        <v>9866297</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B266" s="2">
+        <v>265</v>
+      </c>
+      <c r="C266" s="3">
+        <v>9989143</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B267" s="2">
+        <v>266</v>
+      </c>
+      <c r="C267" s="3">
+        <v>10124835</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B268" s="2">
+        <v>267</v>
+      </c>
+      <c r="C268" s="3">
+        <v>10252387</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B269" s="2">
+        <v>268</v>
+      </c>
+      <c r="C269" s="3">
+        <v>10364372</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B270" s="2">
+        <v>269</v>
+      </c>
+      <c r="C270" s="3">
+        <v>10491034</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B271" s="2">
+        <v>270</v>
+      </c>
+      <c r="C271" s="3">
+        <v>10638345</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B272" s="2">
+        <v>271</v>
+      </c>
+      <c r="C272" s="3">
+        <v>10782737</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B273" s="2">
+        <v>272</v>
+      </c>
+      <c r="C273" s="3">
+        <v>10946910</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B274" s="2">
+        <v>273</v>
+      </c>
+      <c r="C274" s="3">
+        <v>11135232</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B275" s="2">
+        <v>274</v>
+      </c>
+      <c r="C275" s="3">
+        <v>11297538</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B276" s="2">
+        <v>275</v>
+      </c>
+      <c r="C276" s="3">
+        <v>11446206</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B277" s="2">
+        <v>276</v>
+      </c>
+      <c r="C277" s="3">
+        <v>11610639</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B278" s="2">
+        <v>277</v>
+      </c>
+      <c r="C278" s="3">
+        <v>11773908</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B279" s="2">
+        <v>278</v>
+      </c>
+      <c r="C279" s="3">
+        <v>11950791</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B280" s="2">
+        <v>279</v>
+      </c>
+      <c r="C280" s="3">
+        <v>12144842</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B281" s="2">
+        <v>280</v>
+      </c>
+      <c r="C281" s="3">
+        <v>12350194</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B282" s="2">
+        <v>281</v>
+      </c>
+      <c r="C282" s="3">
+        <v>12527452</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B283" s="2">
+        <v>282</v>
+      </c>
+      <c r="C283" s="3">
+        <v>12680933</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B284" s="2">
+        <v>283</v>
+      </c>
+      <c r="C284" s="3">
+        <v>12857507</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B285" s="2">
+        <v>284</v>
+      </c>
+      <c r="C285" s="3">
+        <v>13036023</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B286" s="2">
+        <v>285</v>
+      </c>
+      <c r="C286" s="3">
+        <v>13220493</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B287" s="2">
+        <v>286</v>
+      </c>
+      <c r="C287" s="3">
+        <v>13383140</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B288" s="2">
+        <v>287</v>
+      </c>
+      <c r="C288" s="3">
+        <v>13551981</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B289" s="2">
+        <v>288</v>
+      </c>
+      <c r="C289" s="3">
+        <v>13698957</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B290" s="2">
+        <v>289</v>
+      </c>
+      <c r="C290" s="3">
+        <v>13845089</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B291" s="2">
+        <v>290</v>
+      </c>
+      <c r="C291" s="3">
+        <v>14013562</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B292" s="2">
+        <v>291</v>
+      </c>
+      <c r="C292" s="3">
+        <v>14198660</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B293" s="2">
+        <v>292</v>
+      </c>
+      <c r="C293" s="3">
+        <v>14405402</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B294" s="2">
+        <v>293</v>
+      </c>
+      <c r="C294" s="3">
+        <v>14628116</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B295" s="2">
+        <v>294</v>
+      </c>
+      <c r="C295" s="3">
+        <v>14867271</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B296" s="2">
+        <v>295</v>
+      </c>
+      <c r="C296" s="3">
+        <v>15082294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B297" s="2">
+        <v>296</v>
+      </c>
+      <c r="C297" s="3">
+        <v>15266637</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B298" s="2">
+        <v>297</v>
+      </c>
+      <c r="C298" s="3">
+        <v>15469587</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B299" s="2">
+        <v>298</v>
+      </c>
+      <c r="C299" s="3">
+        <v>15681313</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B300" s="2">
+        <v>299</v>
+      </c>
+      <c r="C300" s="3">
+        <v>15908630</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B301" s="2">
+        <v>300</v>
+      </c>
+      <c r="C301" s="3">
+        <v>16137918</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B302" s="2">
+        <v>301</v>
+      </c>
+      <c r="C302" s="3">
+        <v>16386010</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B303" s="2">
+        <v>302</v>
+      </c>
+      <c r="C303" s="3">
+        <v>16610253</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B304" s="2">
+        <v>303</v>
+      </c>
+      <c r="C304" s="3">
+        <v>16805757</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B305" s="2">
+        <v>304</v>
+      </c>
+      <c r="C305" s="3">
+        <v>17007680</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B306" s="2">
+        <v>305</v>
+      </c>
+      <c r="C306" s="3">
+        <v>17211080</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B307" s="2">
+        <v>306</v>
+      </c>
+      <c r="C307" s="3">
+        <v>17462714</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B308" s="2">
+        <v>307</v>
+      </c>
+      <c r="C308" s="3">
+        <v>17703001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B309" s="2">
+        <v>308</v>
+      </c>
+      <c r="C309" s="3">
+        <v>17959353</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B310" s="2">
+        <v>309</v>
+      </c>
+      <c r="C310" s="3">
+        <v>18158907</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B311" s="2">
+        <v>310</v>
+      </c>
+      <c r="C311" s="3">
+        <v>18349704</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B312" s="2">
+        <v>311</v>
+      </c>
+      <c r="C312" s="3">
+        <v>18551998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B313" s="2">
+        <v>312</v>
+      </c>
+      <c r="C313" s="3">
+        <v>18752046</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B314" s="2">
+        <v>313</v>
+      </c>
+      <c r="C314" s="3">
+        <v>18985665</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B315" s="2">
+        <v>314</v>
+      </c>
+      <c r="C315" s="3">
+        <v>19196940</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B316" s="2">
+        <v>315</v>
+      </c>
+      <c r="C316" s="3">
+        <v>19351020</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B317" s="2">
+        <v>316</v>
+      </c>
+      <c r="C317" s="3">
+        <v>19518373</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B318" s="2">
+        <v>317</v>
+      </c>
+      <c r="C318" s="3">
+        <v>19664237</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B319" s="2">
+        <v>318</v>
+      </c>
+      <c r="C319" s="3">
+        <v>19852470</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B320" s="2">
+        <v>319</v>
+      </c>
+      <c r="C320" s="3">
+        <v>20052652</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B321" s="2">
+        <v>320</v>
+      </c>
+      <c r="C321" s="3">
+        <v>20288091</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B322" s="2">
+        <v>321</v>
+      </c>
+      <c r="C322" s="3">
+        <v>20531569</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B323" s="2">
+        <v>322</v>
+      </c>
+      <c r="C323" s="3">
+        <v>20757543</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B324" s="2">
+        <v>323</v>
+      </c>
+      <c r="C324" s="3">
+        <v>20997185</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B325" s="2">
+        <v>324</v>
+      </c>
+      <c r="C325" s="3">
+        <v>21198798</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B326" s="2">
+        <v>325</v>
+      </c>
+      <c r="C326" s="3">
+        <v>21398304</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B327" s="2">
+        <v>326</v>
+      </c>
+      <c r="C327" s="3">
+        <v>21633168</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B328" s="2">
+        <v>327</v>
+      </c>
+      <c r="C328" s="3">
+        <v>21898082</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B329" s="2">
+        <v>328</v>
+      </c>
+      <c r="C329" s="3">
+        <v>22178867</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B330" s="2">
+        <v>329</v>
+      </c>
+      <c r="C330" s="3">
+        <v>22487168</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B331" s="2">
+        <v>330</v>
+      </c>
+      <c r="C331" s="3">
+        <v>22745541</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B332" s="2">
+        <v>331</v>
+      </c>
+      <c r="C332" s="3">
+        <v>22967217</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B333" s="2">
+        <v>332</v>
+      </c>
+      <c r="C333" s="3">
+        <v>23187240</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B334" s="2">
+        <v>333</v>
+      </c>
+      <c r="C334" s="3">
+        <v>23417837</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B335" s="2">
+        <v>334</v>
+      </c>
+      <c r="C335" s="3">
+        <v>23657150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B336" s="2">
+        <v>335</v>
+      </c>
+      <c r="C336" s="3">
+        <v>23892793</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B337" s="2">
+        <v>336</v>
+      </c>
+      <c r="C337" s="3">
+        <v>24142416</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B338" s="2">
+        <v>337</v>
+      </c>
+      <c r="C338" s="3">
+        <v>24348993</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B339" s="2">
+        <v>338</v>
+      </c>
+      <c r="C339" s="3">
+        <v>24526894</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B340" s="2">
+        <v>339</v>
+      </c>
+      <c r="C340" s="3">
+        <v>24677661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B341" s="2">
+        <v>340</v>
+      </c>
+      <c r="C341" s="3">
+        <v>24853647</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B342" s="2">
+        <v>341</v>
+      </c>
+      <c r="C342" s="3">
+        <v>25044866</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B343" s="2">
+        <v>342</v>
+      </c>
+      <c r="C343" s="3">
+        <v>25240237</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B344" s="2">
+        <v>343</v>
+      </c>
+      <c r="C344" s="3">
+        <v>25436502</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B345" s="2">
+        <v>344</v>
+      </c>
+      <c r="C345" s="3">
+        <v>25611102</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B346" s="2">
+        <v>345</v>
+      </c>
+      <c r="C346" s="3">
+        <v>25754472</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B347" s="2">
+        <v>346</v>
+      </c>
+      <c r="C347" s="3">
+        <v>25907190</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B348" s="2">
+        <v>347</v>
+      </c>
+      <c r="C348" s="3">
+        <v>26060455</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B349" s="2">
+        <v>348</v>
+      </c>
+      <c r="C349" s="3">
+        <v>26221887</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B350" s="2">
+        <v>349</v>
+      </c>
+      <c r="C350" s="3">
+        <v>26387941</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B351" s="2">
+        <v>350</v>
+      </c>
+      <c r="C351" s="3">
+        <v>26560385</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B352" s="2">
+        <v>351</v>
+      </c>
+      <c r="C352" s="3">
+        <v>26706749</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B353" s="2">
+        <v>352</v>
+      </c>
+      <c r="C353" s="3">
+        <v>26818352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B354" s="2">
+        <v>353</v>
+      </c>
+      <c r="C354" s="3">
+        <v>26946704</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B355" s="2">
+        <v>354</v>
+      </c>
+      <c r="C355" s="3">
+        <v>27062972</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B356" s="2">
+        <v>355</v>
+      </c>
+      <c r="C356" s="3">
+        <v>27178094</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B357" s="2">
+        <v>356</v>
+      </c>
+      <c r="C357" s="3">
+        <v>27305235</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B358" s="2">
+        <v>357</v>
+      </c>
+      <c r="C358" s="3">
+        <v>27439853</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B359" s="2">
+        <v>358</v>
+      </c>
+      <c r="C359" s="3">
+        <v>27549039</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B360" s="2">
+        <v>359</v>
+      </c>
+      <c r="C360" s="3">
+        <v>27640633</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B361" s="2">
+        <v>360</v>
+      </c>
+      <c r="C361" s="3">
+        <v>27735681</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B362" s="2">
+        <v>361</v>
+      </c>
+      <c r="C362" s="3">
+        <v>27835287</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B363" s="2">
+        <v>362</v>
+      </c>
+      <c r="C363" s="3">
+        <v>27934936</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B364" s="2">
+        <v>363</v>
+      </c>
+      <c r="C364" s="3">
+        <v>28044324</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B365" s="2">
+        <v>364</v>
+      </c>
+      <c r="C365" s="3">
+        <v>28150307</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B366" s="2">
+        <v>365</v>
+      </c>
+      <c r="C366" s="3">
+        <v>28238105</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B367" s="2">
+        <v>366</v>
+      </c>
+      <c r="C367" s="3">
+        <v>28304927</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B368" s="2">
+        <v>367</v>
+      </c>
+      <c r="C368" s="3">
+        <v>28362165</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B369" s="2">
+        <v>368</v>
+      </c>
+      <c r="C369" s="3">
+        <v>28428529</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B370" s="2">
+        <v>369</v>
+      </c>
+      <c r="C370" s="3">
+        <v>28502518</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B371" s="2">
+        <v>370</v>
+      </c>
+      <c r="C371" s="3">
+        <v>28575048</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B372" s="2">
+        <v>371</v>
+      </c>
+      <c r="C372" s="3">
+        <v>28659632</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B373" s="2">
+        <v>372</v>
+      </c>
+      <c r="C373" s="3">
+        <v>28731390</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B374" s="2">
+        <v>373</v>
+      </c>
+      <c r="C374" s="3">
+        <v>28790369</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B375" s="2">
+        <v>374</v>
+      </c>
+      <c r="C375" s="3">
+        <v>28849520</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B376" s="2">
+        <v>375</v>
+      </c>
+      <c r="C376" s="3">
+        <v>28923321</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B377" s="2">
+        <v>376</v>
+      </c>
+      <c r="C377" s="3">
+        <v>28999123</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B378" s="2">
+        <v>377</v>
+      </c>
+      <c r="C378" s="3">
+        <v>29077316</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B379" s="2">
+        <v>378</v>
+      </c>
+      <c r="C379" s="3">
+        <v>29158598</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B380" s="2">
+        <v>379</v>
+      </c>
+      <c r="C380" s="3">
+        <v>29224181</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B381" s="2">
+        <v>380</v>
+      </c>
+      <c r="C381" s="3">
+        <v>29277816</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B382" s="2">
+        <v>381</v>
+      </c>
+      <c r="C382" s="3">
+        <v>29332096</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B383" s="2">
+        <v>382</v>
+      </c>
+      <c r="C383" s="3">
+        <v>29389498</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B384" s="2">
+        <v>383</v>
+      </c>
+      <c r="C384" s="3">
+        <v>29456377</v>
       </c>
     </row>
   </sheetData>
